--- a/public/data/yield_loss/yield_table_central_african_republic.xlsx
+++ b/public/data/yield_loss/yield_table_central_african_republic.xlsx
@@ -1519,7 +1519,7 @@
         <v>0.04</v>
       </c>
       <c r="L4" t="n">
-        <v>495.44</v>
+        <v>471.47</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5642.07</v>
+        <v>5448.17</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0.82</v>
       </c>
       <c r="L6" t="n">
-        <v>9729.84</v>
+        <v>9313.39</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>930.43</v>
+        <v>884.99</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="G8" t="n">
         <v>197.82</v>
@@ -1836,10 +1836,10 @@
         <v>39.53</v>
       </c>
       <c r="K8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="L8" t="n">
-        <v>10289.69</v>
+        <v>10013.81</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>842.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
         <v>57.8</v>
@@ -1919,7 +1919,7 @@
         <v>0.1</v>
       </c>
       <c r="L9" t="n">
-        <v>253.41</v>
+        <v>241.66</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8.71</v>
+        <v>8.67</v>
       </c>
       <c r="G10" t="n">
         <v>50.35</v>
@@ -1996,10 +1996,10 @@
         <v>5.06</v>
       </c>
       <c r="K10" t="n">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1318.62</v>
+        <v>1232.74</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G11" t="n">
         <v>19.57</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.42</v>
+        <v>1106.74</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1269.09</v>
+        <v>1236.22</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3872.55</v>
+        <v>3265.96</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>216.04</v>
+        <v>216.03</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>2.28</v>
       </c>
       <c r="L16" t="n">
-        <v>972.34</v>
+        <v>971.49</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>610.27</v>
+        <v>575.1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1469.92</v>
+        <v>1437.83</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4077.9</v>
+        <v>4066.86</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1211.07</v>
+        <v>1148.64</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>8239.84</v>
+        <v>5987.54</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5674.85</v>
+        <v>5548.35</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1323.67</v>
+        <v>1323.66</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>389.79</v>
+        <v>389.78</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0.03</v>
       </c>
       <c r="L24" t="n">
-        <v>12757.59</v>
+        <v>12518.93</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0.09</v>
       </c>
       <c r="L25" t="n">
-        <v>4702.98</v>
+        <v>4655.8</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>12771.98</v>
+        <v>11842.2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.37</v>
+        <v>3.83</v>
       </c>
       <c r="G29" t="n">
         <v>156.53</v>
@@ -3519,22 +3519,22 @@
         <v>0.12</v>
       </c>
       <c r="L29" t="n">
-        <v>1124.26</v>
+        <v>916.47</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>349.82</v>
+        <v>348.46</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>31.82</v>
+        <v>31.69</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.79</v>
+        <v>6.77</v>
       </c>
       <c r="R29" t="n">
         <v>3.63</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1105.18</v>
+        <v>1005.15</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0.02</v>
       </c>
       <c r="L31" t="n">
-        <v>216.14</v>
+        <v>209.81</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0.28</v>
       </c>
       <c r="L32" t="n">
-        <v>3544.15</v>
+        <v>3406.66</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>222.24</v>
+        <v>217.17</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2334.19</v>
+        <v>2185.69</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>172.3</v>
+        <v>155.15</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1941.62</v>
+        <v>1890.91</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>787.79</v>
+        <v>786.26</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>60.9</v>
+        <v>57.41</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4396,10 +4396,10 @@
         <v>9.73</v>
       </c>
       <c r="K40" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L40" t="n">
-        <v>3990.95</v>
+        <v>3973.58</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>57.9</v>
+        <v>57.89</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>31.98</v>
+        <v>31.86</v>
       </c>
       <c r="G46" t="n">
         <v>1.37</v>
@@ -4876,10 +4876,10 @@
         <v>1.92</v>
       </c>
       <c r="K46" t="n">
-        <v>9.27</v>
+        <v>9.25</v>
       </c>
       <c r="L46" t="n">
-        <v>214.8</v>
+        <v>213.67</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>44.51</v>
+        <v>44.22</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
